--- a/src/main/resources/excels/check_product_detail_sf/Create supplier.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/Create supplier.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\GoSELL-Automation\src\main\resources\excels\check_product_detail_sf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA098FF8-F45B-4F64-AEDE-48419E56A0E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1864230A-B18A-45CD-9FE7-FBFF06D2BA9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$7</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$11</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -46,19 +46,6 @@
     <t>Create Non-VN supplier</t>
   </si>
   <si>
-    <t>Dashboard:
-1. Access to dashboard
-2. Check UI (Language: VIE) and create VN supplier</t>
-  </si>
-  <si>
-    <t>1. Text must be translated correctly according to the console language
-2. Can create VN supplier</t>
-  </si>
-  <si>
-    <t>1. Text must be translated correctly according to the console language
-2. Can create Non-VN supplier</t>
-  </si>
-  <si>
     <t>CR_SUPPLIER_VIE_01</t>
   </si>
   <si>
@@ -79,10 +66,6 @@
 2. Create supplier with available supplier code</t>
   </si>
   <si>
-    <t>1. Error should be shown and  must be translated correctly according to the console language
-2. Can not create supplier</t>
-  </si>
-  <si>
     <t>Check Error when leaving required field blank</t>
   </si>
   <si>
@@ -97,15 +80,66 @@
     <t>CR_SUPPLIER_ENG_02</t>
   </si>
   <si>
+    <t>CR_SUPPLIER_ENG_03</t>
+  </si>
+  <si>
+    <t>CR_SUPPLIER_ENG_04</t>
+  </si>
+  <si>
+    <t>1. Error should be shown and  must be translated correctly according to the console language (ENG)
+2. Can not create supplier</t>
+  </si>
+  <si>
     <t>Dashboard:
 1. Access to dashboard
-2. Check UI (Language: ENG) and create VN supplier</t>
+2. Create VN supplier</t>
+  </si>
+  <si>
+    <t>1. Text must be translated correctly according to the console language (ENG)
+2. Can create Non-VN supplier</t>
+  </si>
+  <si>
+    <t>1. Text must be translated correctly according to the console language (ENG)
+2. Can create VN supplier</t>
+  </si>
+  <si>
+    <t>1. Error should be shown and  must be translated correctly according to the console language (VIE)
+2. Can not create supplier</t>
+  </si>
+  <si>
+    <t>1. Text must be translated correctly according to the console language (VIE)
+2. Can create Non-VN supplier</t>
+  </si>
+  <si>
+    <t>1. Text must be translated correctly according to the console language (VIE)
+2. Can create VN supplier</t>
+  </si>
+  <si>
+    <t>CR_SUPPLIER_ENG_05</t>
+  </si>
+  <si>
+    <t>CR_SUPPLIER_VIE_05</t>
+  </si>
+  <si>
+    <t>Check Error when input invalid format supplier code</t>
+  </si>
+  <si>
+    <t>Dashboard:
+1. Access to dashboard
+2. Create supplier with supplier code contains: space, specical characters …</t>
+  </si>
+  <si>
+    <t>PASS</t>
+  </si>
+  <si>
+    <t>FAIL</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -132,7 +166,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,6 +182,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -179,7 +219,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -195,6 +235,12 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -415,16 +461,16 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F967"/>
+  <dimension ref="A1:F968"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="47" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="47.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="54.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
@@ -446,111 +492,178 @@
     </row>
     <row r="2" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B2" s="6" t="s">
         <v>5</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D2" s="6" t="s">
-        <v>8</v>
+        <v>25</v>
+      </c>
+      <c r="E2" t="s">
+        <v>30</v>
       </c>
       <c r="F2" s="2"/>
     </row>
     <row r="3" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="D3" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E4" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="D5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="45.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>15</v>
+      <c r="D9" s="8" t="s">
+        <v>19</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>16</v>
+      <c r="E9" t="s">
+        <v>30</v>
       </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="6" t="s">
+    </row>
+    <row r="10" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A10" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>16</v>
+      <c r="B10" s="8" t="s">
+        <v>11</v>
       </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="C10" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="6" t="s">
-        <v>5</v>
+      <c r="E10" t="s">
+        <v>30</v>
       </c>
-      <c r="C6" s="6" t="s">
-        <v>21</v>
+    </row>
+    <row r="11" spans="1:6" ht="45.6" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>26</v>
       </c>
-      <c r="D6" s="6" t="s">
-        <v>8</v>
+      <c r="B11" s="8" t="s">
+        <v>28</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>20</v>
+      <c r="C11" s="8" t="s">
+        <v>29</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>6</v>
+      <c r="D11" s="8" t="s">
+        <v>19</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>21</v>
+      <c r="E11" t="s">
+        <v>30</v>
       </c>
-      <c r="D7" s="6" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
@@ -5331,6 +5444,11 @@
       <c r="B967" s="1"/>
       <c r="C967" s="1"/>
       <c r="D967" s="1"/>
+    </row>
+    <row r="968" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B968" s="1"/>
+      <c r="C968" s="1"/>
+      <c r="D968" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/excels/check_product_detail_sf/Create supplier.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/Create supplier.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\GoSELL-Automation\src\main\resources\excels\check_product_detail_sf\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1864230A-B18A-45CD-9FE7-FBFF06D2BA9E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBD0FA5A-EF0D-4519-B10A-AB413252FC06}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$E$11</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$6</definedName>
   </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -37,25 +37,10 @@
     <t>Expected</t>
   </si>
   <si>
-    <t>Result</t>
-  </si>
-  <si>
     <t>Create VN supplier</t>
   </si>
   <si>
     <t>Create Non-VN supplier</t>
-  </si>
-  <si>
-    <t>CR_SUPPLIER_VIE_01</t>
-  </si>
-  <si>
-    <t>CR_SUPPLIER_VIE_02</t>
-  </si>
-  <si>
-    <t>CR_SUPPLIER_VIE_03</t>
-  </si>
-  <si>
-    <t>CR_SUPPLIER_VIE_04</t>
   </si>
   <si>
     <t>Check Error when input available supplier code</t>
@@ -74,51 +59,9 @@
 2. Create supplier with blank required field</t>
   </si>
   <si>
-    <t>CR_SUPPLIER_ENG_01</t>
-  </si>
-  <si>
-    <t>CR_SUPPLIER_ENG_02</t>
-  </si>
-  <si>
-    <t>CR_SUPPLIER_ENG_03</t>
-  </si>
-  <si>
-    <t>CR_SUPPLIER_ENG_04</t>
-  </si>
-  <si>
-    <t>1. Error should be shown and  must be translated correctly according to the console language (ENG)
-2. Can not create supplier</t>
-  </si>
-  <si>
     <t>Dashboard:
 1. Access to dashboard
 2. Create VN supplier</t>
-  </si>
-  <si>
-    <t>1. Text must be translated correctly according to the console language (ENG)
-2. Can create Non-VN supplier</t>
-  </si>
-  <si>
-    <t>1. Text must be translated correctly according to the console language (ENG)
-2. Can create VN supplier</t>
-  </si>
-  <si>
-    <t>1. Error should be shown and  must be translated correctly according to the console language (VIE)
-2. Can not create supplier</t>
-  </si>
-  <si>
-    <t>1. Text must be translated correctly according to the console language (VIE)
-2. Can create Non-VN supplier</t>
-  </si>
-  <si>
-    <t>1. Text must be translated correctly according to the console language (VIE)
-2. Can create VN supplier</t>
-  </si>
-  <si>
-    <t>CR_SUPPLIER_ENG_05</t>
-  </si>
-  <si>
-    <t>CR_SUPPLIER_VIE_05</t>
   </si>
   <si>
     <t>Check Error when input invalid format supplier code</t>
@@ -134,12 +77,44 @@
   <si>
     <t>FAIL</t>
   </si>
+  <si>
+    <t>Result VIE</t>
+  </si>
+  <si>
+    <t>Result ENG</t>
+  </si>
+  <si>
+    <t>CR_SUPPLIER_01</t>
+  </si>
+  <si>
+    <t>CR_SUPPLIER_02</t>
+  </si>
+  <si>
+    <t>CR_SUPPLIER_03</t>
+  </si>
+  <si>
+    <t>CR_SUPPLIER_04</t>
+  </si>
+  <si>
+    <t>CR_SUPPLIER_05</t>
+  </si>
+  <si>
+    <t>1. Text must be translated correctly according to the console language 
+2. Can create VN supplier</t>
+  </si>
+  <si>
+    <t>1. Text must be translated correctly according to the console language 
+2. Can create Non-VN supplier</t>
+  </si>
+  <si>
+    <t>1. Error should be shown and  must be translated correctly according to the console language 
+2. Can not create supplier</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -166,7 +141,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,12 +157,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -219,13 +188,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -235,12 +201,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -461,209 +421,162 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:F968"/>
+  <dimension ref="A1:F963"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" width="27.77734375" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" width="47.0" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" width="54.109375" collapsed="true"/>
+    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="27.77734375" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="47" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="54.109375" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+      <c r="C2" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>25</v>
-      </c>
-      <c r="E2" t="s">
-        <v>30</v>
-      </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="6" t="s">
+      <c r="D5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E3" t="s">
-        <v>31</v>
-      </c>
-      <c r="F3" s="2"/>
-    </row>
-    <row r="4" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="6" t="s">
+      <c r="E5" t="s">
         <v>13</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>14</v>
+      <c r="F5" t="s">
+        <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>23</v>
+    </row>
+    <row r="6" spans="1:6" ht="45.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>21</v>
       </c>
-      <c r="E4" t="s">
-        <v>30</v>
-      </c>
-      <c r="F4" s="2"/>
-    </row>
-    <row r="5" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="6" t="s">
+      <c r="B6" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="6" t="s">
+      <c r="C6" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="E5" t="s">
-        <v>30</v>
-      </c>
-      <c r="F5" s="2"/>
-    </row>
-    <row r="6" spans="1:6" ht="45.6" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>23</v>
+      <c r="D6" s="5" t="s">
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2"/>
-    </row>
-    <row r="7" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="B9" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="8" t="s">
-        <v>14</v>
+      <c r="F6" t="s">
+        <v>13</v>
       </c>
-      <c r="D9" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E9" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="34.200000000000003" x14ac:dyDescent="0.25">
-      <c r="A10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E10" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="45.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="C11" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>30</v>
-      </c>
+    </row>
+    <row r="7" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+      <c r="D7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+    </row>
+    <row r="9" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
+      <c r="D11" s="1"/>
     </row>
     <row r="12" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">
       <c r="B12" s="1"/>
@@ -5424,31 +5337,6 @@
       <c r="B963" s="1"/>
       <c r="C963" s="1"/>
       <c r="D963" s="1"/>
-    </row>
-    <row r="964" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B964" s="1"/>
-      <c r="C964" s="1"/>
-      <c r="D964" s="1"/>
-    </row>
-    <row r="965" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B965" s="1"/>
-      <c r="C965" s="1"/>
-      <c r="D965" s="1"/>
-    </row>
-    <row r="966" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B966" s="1"/>
-      <c r="C966" s="1"/>
-      <c r="D966" s="1"/>
-    </row>
-    <row r="967" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B967" s="1"/>
-      <c r="C967" s="1"/>
-      <c r="D967" s="1"/>
-    </row>
-    <row r="968" spans="2:4" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="B968" s="1"/>
-      <c r="C968" s="1"/>
-      <c r="D968" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/excels/check_product_detail_sf/Create supplier.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/Create supplier.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20361"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\IdeaProjects\GoSELL-Automation\src\main\resources\excels\check_product_detail_sf\"/>
     </mc:Choice>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -115,6 +115,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -427,10 +428,10 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="27.77734375" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="47" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="54.109375" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" bestFit="true" customWidth="true" width="21.33203125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" width="27.77734375" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" width="47.0" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" width="54.109375" collapsed="true"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="13.2" x14ac:dyDescent="0.25">

--- a/src/main/resources/excels/check_product_detail_sf/Create supplier.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/Create supplier.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -467,10 +467,10 @@
       <c r="D2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" t="s" s="0">
         <v>13</v>
       </c>
     </row>
@@ -487,10 +487,10 @@
       <c r="D3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="s" s="0">
         <v>14</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" t="s" s="0">
         <v>14</v>
       </c>
     </row>
@@ -507,10 +507,10 @@
       <c r="D4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" t="s" s="0">
         <v>13</v>
       </c>
     </row>
@@ -527,10 +527,10 @@
       <c r="D5" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F5" t="s" s="0">
         <v>13</v>
       </c>
     </row>
@@ -547,10 +547,10 @@
       <c r="D6" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="s" s="0">
         <v>13</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F6" t="s" s="0">
         <v>13</v>
       </c>
     </row>

--- a/src/main/resources/excels/check_product_detail_sf/Create supplier.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/Create supplier.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="25">
   <si>
     <t>TestCase ID</t>
   </si>
@@ -488,7 +488,7 @@
         <v>23</v>
       </c>
       <c r="E3" t="s" s="0">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s" s="0">
         <v>14</v>

--- a/src/main/resources/excels/check_product_detail_sf/Create supplier.xlsx
+++ b/src/main/resources/excels/check_product_detail_sf/Create supplier.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="25">
   <si>
     <t>TestCase ID</t>
   </si>
